--- a/times_series_original_&_sa_det.xlsx
+++ b/times_series_original_&_sa_det.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salvador\Documents\Doctorado\ProyectoFulbright\Pistolas\DFM_v4\Github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2A53F1B-553F-4344-BBFC-42BE9AA9C228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12F4A76A-F293-4EAC-B213-015BE312A546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -81,12 +81,6 @@
     <t>BCs_sa_det</t>
   </si>
   <si>
-    <t>GT_hom_sa</t>
-  </si>
-  <si>
-    <t>GT_Guns_sa</t>
-  </si>
-  <si>
     <t>MO riots_sa_det</t>
   </si>
   <si>
@@ -97,6 +91,12 @@
   </si>
   <si>
     <t>Twitter number Homicide_sa_det</t>
+  </si>
+  <si>
+    <t>GT_Guns_det</t>
+  </si>
+  <si>
+    <t>GT_hom_sa_det</t>
   </si>
 </sst>
 </file>
@@ -426,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X282"/>
+  <dimension ref="A1:X269"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K122" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R136" sqref="R136"/>
+    <sheetView tabSelected="1" topLeftCell="B236" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I248" sqref="I248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -440,9 +440,10 @@
     <col min="6" max="6" width="15.88671875" customWidth="1"/>
     <col min="7" max="12" width="18" customWidth="1"/>
     <col min="13" max="13" width="23.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.77734375" customWidth="1"/>
-    <col min="15" max="15" width="18" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14" customWidth="1"/>
+    <col min="14" max="14" width="22.77734375" customWidth="1"/>
+    <col min="15" max="15" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="18" max="20" width="18" customWidth="1"/>
     <col min="21" max="21" width="31.88671875" bestFit="1" customWidth="1"/>
     <col min="22" max="24" width="18" customWidth="1"/>
@@ -504,22 +505,22 @@
         <v>17</v>
       </c>
       <c r="S1" t="s">
+        <v>23</v>
+      </c>
+      <c r="T1" t="s">
+        <v>22</v>
+      </c>
+      <c r="U1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
-        <v>23</v>
-      </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>20</v>
-      </c>
-      <c r="W1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
@@ -4010,7 +4011,7 @@
         <v>0.33519853291864549</v>
       </c>
       <c r="E86">
-        <v>1.0227372336181693E-5</v>
+        <v>0.10227372336181693</v>
       </c>
       <c r="F86">
         <v>47</v>
@@ -4066,7 +4067,7 @@
         <v>0.28461151199865753</v>
       </c>
       <c r="E87">
-        <v>7.2295903706932471E-6</v>
+        <v>7.2295903706932466E-2</v>
       </c>
       <c r="F87">
         <v>37</v>
@@ -4122,7 +4123,7 @@
         <v>0.30385350638897274</v>
       </c>
       <c r="E88">
-        <v>1.0710912012275607E-5</v>
+        <v>0.10710912012275607</v>
       </c>
       <c r="F88">
         <v>26</v>
@@ -4178,7 +4179,7 @@
         <v>0.35087013783465876</v>
       </c>
       <c r="E89">
-        <v>1.249032318188964E-5</v>
+        <v>0.1249032318188964</v>
       </c>
       <c r="F89">
         <v>47</v>
@@ -4234,7 +4235,7 @@
         <v>0.3720036296303737</v>
       </c>
       <c r="E90">
-        <v>1.2877532670341272E-5</v>
+        <v>0.12877532670341271</v>
       </c>
       <c r="F90">
         <v>29</v>
@@ -4290,7 +4291,7 @@
         <v>0.37235288213843631</v>
       </c>
       <c r="E91">
-        <v>1.3669589642428409E-5</v>
+        <v>0.13669589642428409</v>
       </c>
       <c r="F91">
         <v>43</v>
@@ -4346,7 +4347,7 @@
         <v>0.42650194867269653</v>
       </c>
       <c r="E92">
-        <v>1.9123509094953019E-5</v>
+        <v>0.1912350909495302</v>
       </c>
       <c r="F92">
         <v>20</v>
@@ -4402,7 +4403,7 @@
         <v>0.35865514339526872</v>
       </c>
       <c r="E93">
-        <v>1.0337645616828424E-5</v>
+        <v>0.10337645616828424</v>
       </c>
       <c r="F93">
         <v>47</v>
@@ -4458,7 +4459,7 @@
         <v>0.37469553902105363</v>
       </c>
       <c r="E94">
-        <v>1.4733525448302174E-5</v>
+        <v>0.14733525448302173</v>
       </c>
       <c r="F94">
         <v>31</v>
@@ -4514,7 +4515,7 @@
         <v>0.37172862143690616</v>
       </c>
       <c r="E95">
-        <v>1.4106854420047431E-5</v>
+        <v>0.14106854420047432</v>
       </c>
       <c r="F95">
         <v>48</v>
@@ -4570,7 +4571,7 @@
         <v>0.34845991378448793</v>
       </c>
       <c r="E96">
-        <v>1.2500440534935622E-5</v>
+        <v>0.12500440534935622</v>
       </c>
       <c r="F96">
         <v>27</v>
@@ -4626,7 +4627,7 @@
         <v>0.3774991844153423</v>
       </c>
       <c r="E97">
-        <v>1.2113273790740524E-5</v>
+        <v>0.12113273790740524</v>
       </c>
       <c r="F97">
         <v>47</v>
@@ -4682,7 +4683,7 @@
         <v>0.34463487332339793</v>
       </c>
       <c r="E98">
-        <v>9.4373832039495593E-6</v>
+        <v>9.4373832039495592E-2</v>
       </c>
       <c r="F98">
         <v>42</v>
@@ -4738,7 +4739,7 @@
         <v>0.27025859059978791</v>
       </c>
       <c r="E99">
-        <v>8.140718248890783E-6</v>
+        <v>8.1407182488907825E-2</v>
       </c>
       <c r="F99">
         <v>29</v>
@@ -4794,7 +4795,7 @@
         <v>0.331179723961534</v>
       </c>
       <c r="E100">
-        <v>1.3808013699569605E-5</v>
+        <v>0.13808013699569605</v>
       </c>
       <c r="F100">
         <v>36</v>
@@ -4850,7 +4851,7 @@
         <v>0.349843002144199</v>
       </c>
       <c r="E101">
-        <v>1.1444906926260912E-5</v>
+        <v>0.11444906926260912</v>
       </c>
       <c r="F101">
         <v>38</v>
@@ -4906,7 +4907,7 @@
         <v>0.34756307871905762</v>
       </c>
       <c r="E102">
-        <v>1.1536265228397993E-5</v>
+        <v>0.11536265228397993</v>
       </c>
       <c r="F102">
         <v>22</v>
@@ -4962,7 +4963,7 @@
         <v>0.38470459591106398</v>
       </c>
       <c r="E103">
-        <v>1.5019697454091891E-5</v>
+        <v>0.1501969745409189</v>
       </c>
       <c r="F103">
         <v>33</v>
@@ -5018,7 +5019,7 @@
         <v>0.40057736108904074</v>
       </c>
       <c r="E104">
-        <v>1.4467540194329015E-5</v>
+        <v>0.14467540194329015</v>
       </c>
       <c r="F104">
         <v>37</v>
@@ -5074,7 +5075,7 @@
         <v>0.39062758406265918</v>
       </c>
       <c r="E105">
-        <v>1.2635522373905474E-5</v>
+        <v>0.12635522373905475</v>
       </c>
       <c r="F105">
         <v>25</v>
@@ -5130,7 +5131,7 @@
         <v>0.33576787071615055</v>
       </c>
       <c r="E106">
-        <v>1.1504245967688524E-5</v>
+        <v>0.11504245967688524</v>
       </c>
       <c r="F106">
         <v>36</v>
@@ -5186,7 +5187,7 @@
         <v>0.34738503602633791</v>
       </c>
       <c r="E107">
-        <v>1.1540884429895119E-5</v>
+        <v>0.11540884429895119</v>
       </c>
       <c r="F107">
         <v>34</v>
@@ -5242,7 +5243,7 @@
         <v>0.32930555463898475</v>
       </c>
       <c r="E108">
-        <v>1.140998101489181E-5</v>
+        <v>0.11409981014891811</v>
       </c>
       <c r="F108">
         <v>33</v>
@@ -5298,7 +5299,7 @@
         <v>0.35149037193352678</v>
       </c>
       <c r="E109">
-        <v>9.9538236958141092E-6</v>
+        <v>9.9538236958141096E-2</v>
       </c>
       <c r="F109">
         <v>34</v>
@@ -5354,7 +5355,7 @@
         <v>0.31071454460384718</v>
       </c>
       <c r="E110">
-        <v>9.5539908419403443E-6</v>
+        <v>9.5539908419403449E-2</v>
       </c>
       <c r="F110">
         <v>30</v>
@@ -5410,7 +5411,7 @@
         <v>0.28283839358328916</v>
       </c>
       <c r="E111">
-        <v>7.4618813473571106E-6</v>
+        <v>7.4618813473571105E-2</v>
       </c>
       <c r="F111">
         <v>31</v>
@@ -5466,7 +5467,7 @@
         <v>0.31948566427354025</v>
       </c>
       <c r="E112">
-        <v>9.5396950649278172E-6</v>
+        <v>9.5396950649278167E-2</v>
       </c>
       <c r="F112">
         <v>28</v>
@@ -5522,7 +5523,7 @@
         <v>0.33732578898397869</v>
       </c>
       <c r="E113">
-        <v>1.2675505659292849E-5</v>
+        <v>0.12675505659292849</v>
       </c>
       <c r="F113">
         <v>33</v>
@@ -5578,7 +5579,7 @@
         <v>0.32490571492398057</v>
       </c>
       <c r="E114">
-        <v>1.1505520346004868E-5</v>
+        <v>0.11505520346004867</v>
       </c>
       <c r="F114">
         <v>27</v>
@@ -5634,7 +5635,7 @@
         <v>0.35680757338025121</v>
       </c>
       <c r="E115">
-        <v>1.5250756796695947E-5</v>
+        <v>0.15250756796695947</v>
       </c>
       <c r="F115">
         <v>17</v>
@@ -5690,7 +5691,7 @@
         <v>0.36470615244848364</v>
       </c>
       <c r="E116">
-        <v>1.3719252108340621E-5</v>
+        <v>0.13719252108340621</v>
       </c>
       <c r="F116">
         <v>32</v>
@@ -5746,7 +5747,7 @@
         <v>0.35784741019406341</v>
       </c>
       <c r="E117">
-        <v>1.3199071365030674E-5</v>
+        <v>0.13199071365030673</v>
       </c>
       <c r="F117">
         <v>19</v>
@@ -5802,7 +5803,7 @@
         <v>0.35919751934329391</v>
       </c>
       <c r="E118">
-        <v>1.364434291158414E-5</v>
+        <v>0.1364434291158414</v>
       </c>
       <c r="F118">
         <v>36</v>
@@ -5858,7 +5859,7 @@
         <v>0.3317845690727047</v>
       </c>
       <c r="E119">
-        <v>1.4469212605919406E-5</v>
+        <v>0.14469212605919407</v>
       </c>
       <c r="F119">
         <v>30</v>
@@ -5914,7 +5915,7 @@
         <v>0.32829017712628383</v>
       </c>
       <c r="E120">
-        <v>1.0176438096962574E-5</v>
+        <v>0.10176438096962574</v>
       </c>
       <c r="F120">
         <v>34</v>
@@ -5970,7 +5971,7 @@
         <v>0.32185861094319279</v>
       </c>
       <c r="E121">
-        <v>1.0020726123636144E-5</v>
+        <v>0.10020726123636144</v>
       </c>
       <c r="F121">
         <v>23</v>
@@ -6026,7 +6027,7 @@
         <v>0.30597217187994918</v>
       </c>
       <c r="E122">
-        <v>7.3692914111602241E-6</v>
+        <v>7.369291411160224E-2</v>
       </c>
       <c r="F122">
         <v>24</v>
@@ -6082,7 +6083,7 @@
         <v>0.22875753007133579</v>
       </c>
       <c r="E123">
-        <v>8.6651201604238059E-6</v>
+        <v>8.665120160423806E-2</v>
       </c>
       <c r="F123">
         <v>14</v>
@@ -6138,7 +6139,7 @@
         <v>0.2908901172365439</v>
       </c>
       <c r="E124">
-        <v>7.1315022829475036E-6</v>
+        <v>7.1315022829475036E-2</v>
       </c>
       <c r="F124">
         <v>28</v>
@@ -6194,7 +6195,7 @@
         <v>0.31414670390369642</v>
       </c>
       <c r="E125">
-        <v>1.0466833875984806E-5</v>
+        <v>0.10466833875984806</v>
       </c>
       <c r="F125">
         <v>21</v>
@@ -6250,7 +6251,7 @@
         <v>0.34029111986713995</v>
       </c>
       <c r="E126">
-        <v>1.117303069748372E-5</v>
+        <v>0.1117303069748372</v>
       </c>
       <c r="F126">
         <v>20</v>
@@ -6306,7 +6307,7 @@
         <v>0.32409004236598743</v>
       </c>
       <c r="E127">
-        <v>1.1836735616209671E-5</v>
+        <v>0.11836735616209672</v>
       </c>
       <c r="F127">
         <v>34</v>
@@ -6362,7 +6363,7 @@
         <v>0.36739603992587055</v>
       </c>
       <c r="E128">
-        <v>1.3761345977839537E-5</v>
+        <v>0.13761345977839537</v>
       </c>
       <c r="F128">
         <v>29</v>
@@ -6418,7 +6419,7 @@
         <v>0.33785320278339065</v>
       </c>
       <c r="E129">
-        <v>1.2077471534329127E-5</v>
+        <v>0.12077471534329126</v>
       </c>
       <c r="F129">
         <v>15</v>
@@ -6474,7 +6475,7 @@
         <v>0.30512446806093402</v>
       </c>
       <c r="E130">
-        <v>1.1589269912481551E-5</v>
+        <v>0.11589269912481551</v>
       </c>
       <c r="F130">
         <v>16</v>
@@ -6530,7 +6531,7 @@
         <v>0.30425996386507465</v>
       </c>
       <c r="E131">
-        <v>1.0806889515909814E-5</v>
+        <v>0.10806889515909814</v>
       </c>
       <c r="F131">
         <v>25</v>
@@ -6586,7 +6587,7 @@
         <v>0.31734712069887677</v>
       </c>
       <c r="E132">
-        <v>1.0937352153382539E-5</v>
+        <v>0.10937352153382539</v>
       </c>
       <c r="F132">
         <v>14</v>
@@ -6642,7 +6643,7 @@
         <v>0.3015814399460976</v>
       </c>
       <c r="E133">
-        <v>9.96138968721797E-6</v>
+        <v>9.9613896872179697E-2</v>
       </c>
       <c r="F133">
         <v>22</v>
@@ -6698,7 +6699,7 @@
         <v>0.28811540154870119</v>
       </c>
       <c r="E134">
-        <v>6.7266547993119982E-6</v>
+        <v>6.7266547993119985E-2</v>
       </c>
       <c r="F134">
         <v>24</v>
@@ -6754,7 +6755,7 @@
         <v>0.21546773645642928</v>
       </c>
       <c r="E135">
-        <v>7.3684552053650279E-6</v>
+        <v>7.3684552053650279E-2</v>
       </c>
       <c r="F135">
         <v>13</v>
@@ -6810,7 +6811,7 @@
         <v>0.2871193970492662</v>
       </c>
       <c r="E136">
-        <v>1.0645283962769916E-5</v>
+        <v>0.10645283962769916</v>
       </c>
       <c r="F136">
         <v>12</v>
@@ -6872,7 +6873,7 @@
         <v>0.31086709946777746</v>
       </c>
       <c r="E137">
-        <v>1.1009314560232282E-5</v>
+        <v>0.11009314560232282</v>
       </c>
       <c r="F137">
         <v>11</v>
@@ -6934,7 +6935,7 @@
         <v>0.32521322942872921</v>
       </c>
       <c r="E138">
-        <v>1.1800535326524226E-5</v>
+        <v>0.11800535326524225</v>
       </c>
       <c r="F138">
         <v>16</v>
@@ -6996,7 +6997,7 @@
         <v>0.31305773494660266</v>
       </c>
       <c r="E139">
-        <v>1.2691516592152301E-5</v>
+        <v>0.12691516592152302</v>
       </c>
       <c r="F139">
         <v>17</v>
@@ -7058,7 +7059,7 @@
         <v>0.33896665161581635</v>
       </c>
       <c r="E140">
-        <v>1.3866602023715092E-5</v>
+        <v>0.13866602023715091</v>
       </c>
       <c r="F140">
         <v>26</v>
@@ -7120,7 +7121,7 @@
         <v>0.309397963130076</v>
       </c>
       <c r="E141">
-        <v>1.3020621278245567E-5</v>
+        <v>0.13020621278245567</v>
       </c>
       <c r="F141">
         <v>25</v>
@@ -7182,7 +7183,7 @@
         <v>0.30081677874829299</v>
       </c>
       <c r="E142">
-        <v>1.2318204847439146E-5</v>
+        <v>0.12318204847439146</v>
       </c>
       <c r="F142">
         <v>23</v>
@@ -7244,7 +7245,7 @@
         <v>0.30900259755308568</v>
       </c>
       <c r="E143">
-        <v>1.0752610453509912E-5</v>
+        <v>0.10752610453509912</v>
       </c>
       <c r="F143">
         <v>40</v>
@@ -7306,7 +7307,7 @@
         <v>0.28437421587991946</v>
       </c>
       <c r="E144">
-        <v>7.4858990491510074E-6</v>
+        <v>7.4858990491510069E-2</v>
       </c>
       <c r="F144">
         <v>20</v>
@@ -7368,7 +7369,7 @@
         <v>0.29129678512521578</v>
       </c>
       <c r="E145">
-        <v>8.0329963298861749E-6</v>
+        <v>8.0329963298861745E-2</v>
       </c>
       <c r="F145">
         <v>24</v>
@@ -7430,7 +7431,7 @@
         <v>0.27412404032483539</v>
       </c>
       <c r="E146">
-        <v>9.0535612829352446E-6</v>
+        <v>9.0535612829352449E-2</v>
       </c>
       <c r="F146">
         <v>30</v>
@@ -7492,7 +7493,7 @@
         <v>0.21199166166130801</v>
       </c>
       <c r="E147">
-        <v>8.7185630170285118E-6</v>
+        <v>8.7185630170285119E-2</v>
       </c>
       <c r="F147">
         <v>19</v>
@@ -7554,7 +7555,7 @@
         <v>0.27158734133328194</v>
       </c>
       <c r="E148">
-        <v>8.3633753942957819E-6</v>
+        <v>8.3633753942957814E-2</v>
       </c>
       <c r="F148">
         <v>22</v>
@@ -7616,7 +7617,7 @@
         <v>0.30640597026418293</v>
       </c>
       <c r="E149">
-        <v>9.0085633677861298E-6</v>
+        <v>9.0085633677861293E-2</v>
       </c>
       <c r="F149">
         <v>21</v>
@@ -7678,7 +7679,7 @@
         <v>0.32769854299199669</v>
       </c>
       <c r="E150">
-        <v>1.0869613519765307E-5</v>
+        <v>0.10869613519765307</v>
       </c>
       <c r="F150">
         <v>24</v>
@@ -7740,7 +7741,7 @@
         <v>0.29159470258942505</v>
       </c>
       <c r="E151">
-        <v>1.2137644176542499E-5</v>
+        <v>0.12137644176542499</v>
       </c>
       <c r="F151">
         <v>25</v>
@@ -7802,7 +7803,7 @@
         <v>0.35959934932691201</v>
       </c>
       <c r="E152">
-        <v>1.4315613821713953E-5</v>
+        <v>0.14315613821713952</v>
       </c>
       <c r="F152">
         <v>17</v>
@@ -7864,7 +7865,7 @@
         <v>0.30559119897346959</v>
       </c>
       <c r="E153">
-        <v>9.0586640062194902E-6</v>
+        <v>9.0586640062194898E-2</v>
       </c>
       <c r="F153">
         <v>15</v>
@@ -7926,7 +7927,7 @@
         <v>0.30155928214180644</v>
       </c>
       <c r="E154">
-        <v>1.3301337876742964E-5</v>
+        <v>0.13301337876742964</v>
       </c>
       <c r="F154">
         <v>20</v>
@@ -7988,7 +7989,7 @@
         <v>0.30713767502213246</v>
       </c>
       <c r="E155">
-        <v>1.4057194559144651E-5</v>
+        <v>0.14057194559144651</v>
       </c>
       <c r="F155">
         <v>16</v>
@@ -8050,7 +8051,7 @@
         <v>0.28684230700431862</v>
       </c>
       <c r="E156">
-        <v>9.9357021788431185E-6</v>
+        <v>9.9357021788431185E-2</v>
       </c>
       <c r="F156">
         <v>12</v>
@@ -8112,7 +8113,7 @@
         <v>0.30074035763200491</v>
       </c>
       <c r="E157">
-        <v>9.878476326536483E-6</v>
+        <v>9.8784763265364825E-2</v>
       </c>
       <c r="F157">
         <v>24</v>
@@ -8174,7 +8175,7 @@
         <v>0.29771876585519952</v>
       </c>
       <c r="E158">
-        <v>1.2531978878867406E-5</v>
+        <v>0.12531978878867406</v>
       </c>
       <c r="F158">
         <v>20</v>
@@ -8236,7 +8237,7 @@
         <v>0.22867458044433669</v>
       </c>
       <c r="E159">
-        <v>8.2918110207200853E-6</v>
+        <v>8.2918110207200857E-2</v>
       </c>
       <c r="F159">
         <v>17</v>
@@ -8298,7 +8299,7 @@
         <v>0.29581460584616365</v>
       </c>
       <c r="E160">
-        <v>1.3178003058152948E-5</v>
+        <v>0.13178003058152948</v>
       </c>
       <c r="F160">
         <v>13</v>
@@ -8360,7 +8361,7 @@
         <v>0.30712080616025716</v>
       </c>
       <c r="E161">
-        <v>1.0430633586299359E-5</v>
+        <v>0.10430633586299358</v>
       </c>
       <c r="F161">
         <v>35</v>
@@ -8422,7 +8423,7 @@
         <v>0.31043837081942993</v>
       </c>
       <c r="E162">
-        <v>1.4530221453927973E-5</v>
+        <v>0.14530221453927972</v>
       </c>
       <c r="F162">
         <v>21</v>
@@ -8484,7 +8485,7 @@
         <v>0.31660472456979943</v>
       </c>
       <c r="E163">
-        <v>1.3133400571268448E-5</v>
+        <v>0.13133400571268447</v>
       </c>
       <c r="F163">
         <v>20</v>
@@ -8546,7 +8547,7 @@
         <v>0.35104566455424513</v>
       </c>
       <c r="E164">
-        <v>1.2223945104661303E-5</v>
+        <v>0.12223945104661303</v>
       </c>
       <c r="F164">
         <v>28</v>
@@ -8608,7 +8609,7 @@
         <v>0.33269463589479603</v>
       </c>
       <c r="E165">
-        <v>1.4369892884113853E-5</v>
+        <v>0.14369892884113852</v>
       </c>
       <c r="F165">
         <v>14</v>
@@ -8670,7 +8671,7 @@
         <v>0.3270827709944269</v>
       </c>
       <c r="E166">
-        <v>1.1473103052021352E-5</v>
+        <v>0.11473103052021352</v>
       </c>
       <c r="F166">
         <v>16</v>
@@ -8732,7 +8733,7 @@
         <v>0.30022977416119739</v>
       </c>
       <c r="E167">
-        <v>1.0236610739175944E-5</v>
+        <v>0.10236610739175944</v>
       </c>
       <c r="F167">
         <v>24</v>
@@ -8794,7 +8795,7 @@
         <v>0.29848568474075204</v>
       </c>
       <c r="E168">
-        <v>9.2025434706530081E-6</v>
+        <v>9.2025434706530088E-2</v>
       </c>
       <c r="F168">
         <v>20</v>
@@ -8856,7 +8857,7 @@
         <v>0.33037412809131261</v>
       </c>
       <c r="E169">
-        <v>1.0054375051679469E-5</v>
+        <v>0.10054375051679469</v>
       </c>
       <c r="F169">
         <v>12</v>
@@ -8918,7 +8919,7 @@
         <v>0.29790672983979588</v>
       </c>
       <c r="E170">
-        <v>9.5127331782366232E-6</v>
+        <v>9.5127331782366237E-2</v>
       </c>
       <c r="F170">
         <v>25</v>
@@ -8980,7 +8981,7 @@
         <v>0.21984148605241985</v>
       </c>
       <c r="E171">
-        <v>4.9665967807287657E-6</v>
+        <v>4.9665967807287659E-2</v>
       </c>
       <c r="F171">
         <v>11</v>
@@ -9042,7 +9043,7 @@
         <v>0.27988766499599482</v>
       </c>
       <c r="E172">
-        <v>6.7708165086659168E-6</v>
+        <v>6.7708165086659167E-2</v>
       </c>
       <c r="F172">
         <v>30</v>
@@ -9104,7 +9105,7 @@
         <v>0.27720115437193055</v>
       </c>
       <c r="E173">
-        <v>8.2215210254607312E-6</v>
+        <v>8.2215210254607318E-2</v>
       </c>
       <c r="F173">
         <v>12</v>
@@ -9166,7 +9167,7 @@
         <v>0.28779071606125195</v>
       </c>
       <c r="E174">
-        <v>1.005143086678217E-5</v>
+        <v>0.1005143086678217</v>
       </c>
       <c r="F174">
         <v>41</v>
@@ -9228,7 +9229,7 @@
         <v>0.32363584646260329</v>
       </c>
       <c r="E175">
-        <v>9.5830231734959773E-6</v>
+        <v>9.5830231734959775E-2</v>
       </c>
       <c r="F175">
         <v>12</v>
@@ -9290,7 +9291,7 @@
         <v>0.34646445186291763</v>
       </c>
       <c r="E176">
-        <v>1.2206219015954925E-5</v>
+        <v>0.12206219015954925</v>
       </c>
       <c r="F176">
         <v>15</v>
@@ -9352,7 +9353,7 @@
         <v>0.30203947659115155</v>
       </c>
       <c r="E177">
-        <v>1.1276574192521787E-5</v>
+        <v>0.11276574192521786</v>
       </c>
       <c r="F177">
         <v>23</v>
@@ -9414,7 +9415,7 @@
         <v>0.28953966977338319</v>
       </c>
       <c r="E178">
-        <v>9.6974748781092482E-6</v>
+        <v>9.6974748781092482E-2</v>
       </c>
       <c r="F178">
         <v>21</v>
@@ -9476,7 +9477,7 @@
         <v>0.30417843453701832</v>
       </c>
       <c r="E179">
-        <v>9.1398622110540523E-6</v>
+        <v>9.139862211054052E-2</v>
       </c>
       <c r="F179">
         <v>25</v>
@@ -9538,7 +9539,7 @@
         <v>0.29801939961377188</v>
       </c>
       <c r="E180">
-        <v>6.8225895586896688E-6</v>
+        <v>6.8225895586896693E-2</v>
       </c>
       <c r="F180">
         <v>12</v>
@@ -9600,7 +9601,7 @@
         <v>0.31391885339328335</v>
       </c>
       <c r="E181">
-        <v>9.7900648143061365E-6</v>
+        <v>9.7900648143061361E-2</v>
       </c>
       <c r="F181">
         <v>20</v>
@@ -9665,7 +9666,7 @@
         <v>1041</v>
       </c>
       <c r="E182">
-        <v>9.0548356612515889E-6</v>
+        <v>9.0548356612515896E-2</v>
       </c>
       <c r="F182">
         <v>20</v>
@@ -9733,7 +9734,7 @@
         <v>827</v>
       </c>
       <c r="E183">
-        <v>6.905898347635768E-6</v>
+        <v>6.905898347635768E-2</v>
       </c>
       <c r="F183">
         <v>19</v>
@@ -9801,7 +9802,7 @@
         <v>1000</v>
       </c>
       <c r="E184">
-        <v>7.1256087031340327E-6</v>
+        <v>7.1256087031340329E-2</v>
       </c>
       <c r="F184">
         <v>28</v>
@@ -9869,7 +9870,7 @@
         <v>967</v>
       </c>
       <c r="E185">
-        <v>7.0612148926975846E-6</v>
+        <v>7.0612148926975843E-2</v>
       </c>
       <c r="F185">
         <v>24</v>
@@ -9937,7 +9938,7 @@
         <v>1082</v>
       </c>
       <c r="E186">
-        <v>1.0542138501005898E-5</v>
+        <v>0.10542138501005897</v>
       </c>
       <c r="F186">
         <v>21</v>
@@ -10005,7 +10006,7 @@
         <v>1109</v>
       </c>
       <c r="E187">
-        <v>1.001566874961787E-5</v>
+        <v>0.1001566874961787</v>
       </c>
       <c r="F187">
         <v>20</v>
@@ -10073,7 +10074,7 @@
         <v>1089</v>
       </c>
       <c r="E188">
-        <v>9.0977683415551367E-6</v>
+        <v>9.0977683415551361E-2</v>
       </c>
       <c r="F188">
         <v>17</v>
@@ -10141,7 +10142,7 @@
         <v>1123</v>
       </c>
       <c r="E189">
-        <v>1.1216796978573025E-5</v>
+        <v>0.11216796978573025</v>
       </c>
       <c r="F189">
         <v>15</v>
@@ -10209,7 +10210,7 @@
         <v>1023</v>
       </c>
       <c r="E190">
-        <v>1.1851031393222195E-5</v>
+        <v>0.11851031393222194</v>
       </c>
       <c r="F190">
         <v>16</v>
@@ -10277,7 +10278,7 @@
         <v>1008</v>
       </c>
       <c r="E191">
-        <v>1.0440310161814758E-5</v>
+        <v>0.10440310161814759</v>
       </c>
       <c r="F191">
         <v>17</v>
@@ -10345,7 +10346,7 @@
         <v>1005</v>
       </c>
       <c r="E192">
-        <v>7.719026231610068E-6</v>
+        <v>7.7190262316100683E-2</v>
       </c>
       <c r="F192">
         <v>31</v>
@@ -10413,7 +10414,7 @@
         <v>1105</v>
       </c>
       <c r="E193">
-        <v>8.5834837830680974E-6</v>
+        <v>8.5834837830680979E-2</v>
       </c>
       <c r="F193">
         <v>24</v>
@@ -10481,7 +10482,7 @@
         <v>1105</v>
       </c>
       <c r="E194">
-        <v>1.070250981507655E-5</v>
+        <v>0.1070250981507655</v>
       </c>
       <c r="F194">
         <v>28</v>
@@ -10549,7 +10550,7 @@
         <v>851</v>
       </c>
       <c r="E195">
-        <v>5.2586649713413884E-6</v>
+        <v>5.2586649713413883E-2</v>
       </c>
       <c r="F195">
         <v>42</v>
@@ -10617,7 +10618,7 @@
         <v>1117</v>
       </c>
       <c r="E196">
-        <v>8.2762408653912174E-6</v>
+        <v>8.276240865391217E-2</v>
       </c>
       <c r="F196">
         <v>37</v>
@@ -10685,7 +10686,7 @@
         <v>1040</v>
       </c>
       <c r="E197">
-        <v>6.2556983493931181E-6</v>
+        <v>6.2556983493931184E-2</v>
       </c>
       <c r="F197">
         <v>33</v>
@@ -10753,7 +10754,7 @@
         <v>1164</v>
       </c>
       <c r="E198">
-        <v>1.2886771073335524E-5</v>
+        <v>0.12886771073335523</v>
       </c>
       <c r="F198">
         <v>25</v>
@@ -10821,7 +10822,7 @@
         <v>1103</v>
       </c>
       <c r="E199">
-        <v>9.9285342207133059E-6</v>
+        <v>9.9285342207133059E-2</v>
       </c>
       <c r="F199">
         <v>21</v>
@@ -10889,7 +10890,7 @@
         <v>1283</v>
       </c>
       <c r="E200">
-        <v>1.426423880496425E-5</v>
+        <v>0.14264238804964249</v>
       </c>
       <c r="F200">
         <v>21</v>
@@ -10957,7 +10958,7 @@
         <v>1227</v>
       </c>
       <c r="E201">
-        <v>1.2493272576805809E-5</v>
+        <v>0.1249327257680581</v>
       </c>
       <c r="F201">
         <v>38</v>
@@ -11025,7 +11026,7 @@
         <v>1211</v>
       </c>
       <c r="E202">
-        <v>1.3400222031036804E-5</v>
+        <v>0.13400222031036804</v>
       </c>
       <c r="F202">
         <v>26</v>
@@ -11093,7 +11094,7 @@
         <v>1118</v>
       </c>
       <c r="E203">
-        <v>1.0289217389985456E-5</v>
+        <v>0.10289217389985456</v>
       </c>
       <c r="F203">
         <v>30</v>
@@ -11161,7 +11162,7 @@
         <v>1133</v>
       </c>
       <c r="E204">
-        <v>1.0124226874417676E-5</v>
+        <v>0.10124226874417676</v>
       </c>
       <c r="F204">
         <v>52</v>
@@ -11229,7 +11230,7 @@
         <v>1208</v>
       </c>
       <c r="E205">
-        <v>1.0006387602367085E-5</v>
+        <v>0.10006387602367085</v>
       </c>
       <c r="F205">
         <v>41</v>
@@ -11297,7 +11298,7 @@
         <v>1139</v>
       </c>
       <c r="E206">
-        <v>1.1138502819388666E-5</v>
+        <v>0.11138502819388665</v>
       </c>
       <c r="F206">
         <v>31</v>
@@ -11365,7 +11366,7 @@
         <v>938</v>
       </c>
       <c r="E207">
-        <v>9.4011855192735497E-6</v>
+        <v>9.40118551927355E-2</v>
       </c>
       <c r="F207">
         <v>19</v>
@@ -11433,7 +11434,7 @@
         <v>1187</v>
       </c>
       <c r="E208">
-        <v>1.1026557127151542E-5</v>
+        <v>0.11026557127151543</v>
       </c>
       <c r="F208">
         <v>20</v>
@@ -11501,7 +11502,7 @@
         <v>1153</v>
       </c>
       <c r="E209">
-        <v>1.0828751284326199E-5</v>
+        <v>0.10828751284326199</v>
       </c>
       <c r="F209">
         <v>31</v>
@@ -11569,7 +11570,7 @@
         <v>1205</v>
       </c>
       <c r="E210">
-        <v>1.2302199124598565E-5</v>
+        <v>0.12302199124598565</v>
       </c>
       <c r="F210">
         <v>24</v>
@@ -11637,7 +11638,7 @@
         <v>1236</v>
       </c>
       <c r="E211">
-        <v>1.4498247542484477E-5</v>
+        <v>0.14498247542484477</v>
       </c>
       <c r="F211">
         <v>25</v>
@@ -11705,7 +11706,7 @@
         <v>1441</v>
       </c>
       <c r="E212">
-        <v>1.5622353385562177E-5</v>
+        <v>0.15622353385562177</v>
       </c>
       <c r="F212">
         <v>35</v>
@@ -11773,7 +11774,7 @@
         <v>1445</v>
       </c>
       <c r="E213">
-        <v>1.8868878038104524E-5</v>
+        <v>0.18868878038104525</v>
       </c>
       <c r="F213">
         <v>37</v>
@@ -11841,7 +11842,7 @@
         <v>1294</v>
       </c>
       <c r="E214">
-        <v>1.2932650543545803E-5</v>
+        <v>0.12932650543545804</v>
       </c>
       <c r="F214">
         <v>34</v>
@@ -11909,7 +11910,7 @@
         <v>1362</v>
       </c>
       <c r="E215">
-        <v>1.6069297343706031E-5</v>
+        <v>0.16069297343706032</v>
       </c>
       <c r="F215">
         <v>32</v>
@@ -11977,7 +11978,7 @@
         <v>1370</v>
       </c>
       <c r="E216">
-        <v>1.4475506824016357E-5</v>
+        <v>0.14475506824016357</v>
       </c>
       <c r="F216">
         <v>23</v>
@@ -12045,7 +12046,7 @@
         <v>1358</v>
       </c>
       <c r="E217">
-        <v>1.1757167078708966E-5</v>
+        <v>0.11757167078708966</v>
       </c>
       <c r="F217">
         <v>32</v>
@@ -12113,7 +12114,7 @@
         <v>1364</v>
       </c>
       <c r="E218">
-        <v>1.3576956961974986E-5</v>
+        <v>0.13576956961974987</v>
       </c>
       <c r="F218">
         <v>33</v>
@@ -12181,7 +12182,7 @@
         <v>1148</v>
       </c>
       <c r="E219">
-        <v>1.0193242491360686E-5</v>
+        <v>0.10193242491360686</v>
       </c>
       <c r="F219">
         <v>22</v>
@@ -12252,7 +12253,7 @@
         <v>1200</v>
       </c>
       <c r="E220">
-        <v>1.0125063080212871E-5</v>
+        <v>0.1012506308021287</v>
       </c>
       <c r="F220">
         <v>29</v>
@@ -12323,7 +12324,7 @@
         <v>1263</v>
       </c>
       <c r="E221">
-        <v>1.1872893161638581E-5</v>
+        <v>0.11872893161638581</v>
       </c>
       <c r="F221">
         <v>19</v>
@@ -12394,7 +12395,7 @@
         <v>1401</v>
       </c>
       <c r="E222">
-        <v>1.1760113868615699E-5</v>
+        <v>0.11760113868615699</v>
       </c>
       <c r="F222">
         <v>13</v>
@@ -12468,7 +12469,7 @@
         <v>1334</v>
       </c>
       <c r="E223">
-        <v>1.7325979013377431E-5</v>
+        <v>0.17325979013377432</v>
       </c>
       <c r="F223">
         <v>22</v>
@@ -12539,7 +12540,7 @@
         <v>1445</v>
       </c>
       <c r="E224">
-        <v>1.513164575133845E-5</v>
+        <v>0.15131645751338452</v>
       </c>
       <c r="F224">
         <v>20</v>
@@ -12610,7 +12611,7 @@
         <v>1324</v>
       </c>
       <c r="E225">
-        <v>1.0925963027029649E-5</v>
+        <v>0.10925963027029649</v>
       </c>
       <c r="F225">
         <v>27</v>
@@ -12684,7 +12685,7 @@
         <v>1197</v>
       </c>
       <c r="E226">
-        <v>1.3176728679836608E-5</v>
+        <v>0.13176728679836608</v>
       </c>
       <c r="F226">
         <v>36</v>
@@ -12755,7 +12756,7 @@
         <v>1344</v>
       </c>
       <c r="E227">
-        <v>1.4305058296146821E-5</v>
+        <v>0.14305058296146822</v>
       </c>
       <c r="F227">
         <v>30</v>
@@ -12826,7 +12827,7 @@
         <v>1334</v>
       </c>
       <c r="E228">
-        <v>1.0081296799123563E-5</v>
+        <v>0.10081296799123562</v>
       </c>
       <c r="F228">
         <v>21</v>
@@ -12900,7 +12901,7 @@
         <v>1301</v>
       </c>
       <c r="E229">
-        <v>1.0113714093107082E-5</v>
+        <v>0.10113714093107082</v>
       </c>
       <c r="F229">
         <v>23</v>
@@ -12971,7 +12972,7 @@
         <v>1351</v>
       </c>
       <c r="E230">
-        <v>9.2366331762269166E-6</v>
+        <v>9.236633176226916E-2</v>
       </c>
       <c r="F230">
         <v>25</v>
@@ -13042,7 +13043,7 @@
         <v>1092</v>
       </c>
       <c r="E231">
-        <v>1.0339275284162279E-5</v>
+        <v>0.10339275284162279</v>
       </c>
       <c r="F231">
         <v>27</v>
@@ -13116,7 +13117,7 @@
         <v>1155</v>
       </c>
       <c r="E232">
-        <v>9.7559751087322297E-6</v>
+        <v>9.7559751087322302E-2</v>
       </c>
       <c r="F232">
         <v>38</v>
@@ -13187,7 +13188,7 @@
         <v>1227</v>
       </c>
       <c r="E233">
-        <v>9.726945382186031E-6</v>
+        <v>9.7269453821860308E-2</v>
       </c>
       <c r="F233">
         <v>33</v>
@@ -13258,7 +13259,7 @@
         <v>1238</v>
       </c>
       <c r="E234">
-        <v>1.4143452743006925E-5</v>
+        <v>0.14143452743006926</v>
       </c>
       <c r="F234">
         <v>28</v>
@@ -13332,7 +13333,7 @@
         <v>1345</v>
       </c>
       <c r="E235">
-        <v>1.3041646840866757E-5</v>
+        <v>0.13041646840866758</v>
       </c>
       <c r="F235">
         <v>23</v>
@@ -13403,7 +13404,7 @@
         <v>1316</v>
       </c>
       <c r="E236">
-        <v>1.3794556733361713E-5</v>
+        <v>0.13794556733361713</v>
       </c>
       <c r="F236">
         <v>26</v>
@@ -13474,7 +13475,7 @@
         <v>1279</v>
       </c>
       <c r="E237">
-        <v>1.4522217290002966E-5</v>
+        <v>0.14522217290002964</v>
       </c>
       <c r="F237">
         <v>25</v>
@@ -13548,7 +13549,7 @@
         <v>1270</v>
       </c>
       <c r="E238">
-        <v>1.4237715090794202E-5</v>
+        <v>0.14237715090794203</v>
       </c>
       <c r="F238">
         <v>30</v>
@@ -13619,7 +13620,7 @@
         <v>1160</v>
       </c>
       <c r="E239">
-        <v>1.2348471418064022E-5</v>
+        <v>0.12348471418064022</v>
       </c>
       <c r="F239">
         <v>31</v>
@@ -13690,7 +13691,7 @@
         <v>1177</v>
       </c>
       <c r="E240">
-        <v>1.2216731797265519E-5</v>
+        <v>0.12216731797265519</v>
       </c>
       <c r="F240">
         <v>31</v>
@@ -13764,7 +13765,7 @@
         <v>1280</v>
       </c>
       <c r="E241">
-        <v>1.3057612424460237E-5</v>
+        <v>0.13057612424460238</v>
       </c>
       <c r="F241">
         <v>29</v>
@@ -13835,7 +13836,7 @@
         <v>1223</v>
       </c>
       <c r="E242">
-        <v>8.6453262318624227E-6</v>
+        <v>8.6453262318624227E-2</v>
       </c>
       <c r="F242">
         <v>42</v>
@@ -13906,7 +13907,7 @@
         <v>1097</v>
       </c>
       <c r="E243">
-        <v>7.7606793235783996E-6</v>
+        <v>7.7606793235783997E-2</v>
       </c>
       <c r="F243">
         <v>31</v>
@@ -13980,7 +13981,7 @@
         <v>1238</v>
       </c>
       <c r="E244">
-        <v>1.1320295124345121E-5</v>
+        <v>0.11320295124345121</v>
       </c>
       <c r="F244">
         <v>20</v>
@@ -14051,7 +14052,7 @@
         <v>1137</v>
       </c>
       <c r="E245">
-        <v>1.3187241461147202E-5</v>
+        <v>0.13187241461147201</v>
       </c>
       <c r="F245">
         <v>33</v>
@@ -14122,7 +14123,7 @@
         <v>1294</v>
       </c>
       <c r="E246">
-        <v>1.1904036077305755E-5</v>
+        <v>0.11904036077305755</v>
       </c>
       <c r="F246">
         <v>19</v>
@@ -14196,7 +14197,7 @@
         <v>1345</v>
       </c>
       <c r="E247">
-        <v>1.3064782987599484E-5</v>
+        <v>0.13064782987599485</v>
       </c>
       <c r="F247">
         <v>23</v>
@@ -14267,7 +14268,7 @@
         <v>1430</v>
       </c>
       <c r="E248">
-        <v>1.1433119766633973E-5</v>
+        <v>0.11433119766633973</v>
       </c>
       <c r="F248">
         <v>28</v>
@@ -14338,7 +14339,7 @@
         <v>1305</v>
       </c>
       <c r="E249">
-        <v>1.4824400228652133E-5</v>
+        <v>0.14824400228652132</v>
       </c>
       <c r="F249">
         <v>34</v>
@@ -14412,7 +14413,7 @@
         <v>1381</v>
       </c>
       <c r="E250">
-        <v>1.2139316588132888E-5</v>
+        <v>0.12139316588132888</v>
       </c>
       <c r="F250">
         <v>33</v>
@@ -14483,7 +14484,7 @@
         <v>1291</v>
       </c>
       <c r="E251">
-        <v>1.3042480441652514E-5</v>
+        <v>0.13042480441652515</v>
       </c>
       <c r="F251">
         <v>36</v>
@@ -14554,7 +14555,7 @@
         <v>1337</v>
       </c>
       <c r="E252">
-        <v>1.042724601886204E-5</v>
+        <v>0.10427246018862039</v>
       </c>
       <c r="F252">
         <v>38</v>
@@ -14628,7 +14629,7 @@
         <v>1413</v>
       </c>
       <c r="E253">
-        <v>1.0147363021150403E-5</v>
+        <v>0.10147363021150403</v>
       </c>
       <c r="F253">
         <v>25</v>
@@ -14699,7 +14700,7 @@
         <v>1340</v>
       </c>
       <c r="E254">
-        <v>1.2187699465709886E-5</v>
+        <v>0.12187699465709886</v>
       </c>
       <c r="F254">
         <v>25</v>
@@ -14770,7 +14771,7 @@
         <v>1181</v>
       </c>
       <c r="E255">
-        <v>9.4996690352839046E-6</v>
+        <v>9.4996690352839044E-2</v>
       </c>
       <c r="F255">
         <v>73</v>
@@ -14844,7 +14845,7 @@
         <v>1256</v>
       </c>
       <c r="E256">
-        <v>1.0871240582089725E-5</v>
+        <v>0.10871240582089725</v>
       </c>
       <c r="F256">
         <v>61</v>
@@ -14915,7 +14916,7 @@
         <v>1377</v>
       </c>
       <c r="E257">
-        <v>1.450202793317697E-5</v>
+        <v>0.1450202793317697</v>
       </c>
       <c r="F257">
         <v>45</v>
@@ -14986,7 +14987,7 @@
         <v>1692</v>
       </c>
       <c r="E258">
-        <v>1.8182870573431601E-5</v>
+        <v>0.181828705734316</v>
       </c>
       <c r="F258">
         <v>28</v>
@@ -15060,7 +15061,7 @@
         <v>1769</v>
       </c>
       <c r="E259">
-        <v>2.0675208350153212E-5</v>
+        <v>0.20675208350153212</v>
       </c>
       <c r="F259">
         <v>16</v>
@@ -15131,7 +15132,7 @@
         <v>1964</v>
       </c>
       <c r="E260">
-        <v>2.4140166374868044E-5</v>
+        <v>0.24140166374868044</v>
       </c>
       <c r="F260">
         <v>16</v>
@@ -15202,7 +15203,7 @@
         <v>1856</v>
       </c>
       <c r="E261">
-        <v>1.8906350101096874E-5</v>
+        <v>0.18906350101096875</v>
       </c>
       <c r="F261">
         <v>46</v>
@@ -15276,7 +15277,7 @@
         <v>1668</v>
       </c>
       <c r="E262">
-        <v>1.9238842354627461E-5</v>
+        <v>0.19238842354627461</v>
       </c>
       <c r="F262">
         <v>95</v>
@@ -15347,7 +15348,7 @@
         <v>1874</v>
       </c>
       <c r="E263">
-        <v>1.9692908921635155E-5</v>
+        <v>0.19692908921635155</v>
       </c>
       <c r="F263">
         <v>67</v>
@@ -15418,7 +15419,7 @@
         <v>1758</v>
       </c>
       <c r="E264">
-        <v>1.5648436322201642E-5</v>
+        <v>0.15648436322201642</v>
       </c>
       <c r="F264">
         <v>67</v>
@@ -15492,7 +15493,7 @@
         <v>1765</v>
       </c>
       <c r="E265">
-        <v>1.5079431923784115E-5</v>
+        <v>0.15079431923784115</v>
       </c>
       <c r="F265">
         <v>107</v>
@@ -15552,579 +15553,8 @@
         <v>-28.188624218490389</v>
       </c>
     </row>
-    <row r="266" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A266">
-        <v>1.21</v>
-      </c>
-      <c r="D266">
-        <v>1686</v>
-      </c>
-      <c r="F266">
-        <v>60</v>
-      </c>
-      <c r="G266">
-        <v>4317804</v>
-      </c>
-      <c r="H266">
-        <v>68</v>
-      </c>
-      <c r="I266">
-        <v>54</v>
-      </c>
-      <c r="J266">
-        <v>1031</v>
-      </c>
-      <c r="K266" s="2">
-        <v>207.91242980957031</v>
-      </c>
-      <c r="L266">
-        <v>120</v>
-      </c>
-      <c r="O266">
-        <v>14.3</v>
-      </c>
-      <c r="P266">
-        <v>1700.7890832711721</v>
-      </c>
-      <c r="R266">
-        <v>1694719.1575740124</v>
-      </c>
-      <c r="S266">
-        <v>1.4873987305933269</v>
-      </c>
-      <c r="T266" s="3">
-        <v>3.492921632875837</v>
-      </c>
-      <c r="V266">
-        <v>619.66190336415889</v>
-      </c>
-      <c r="W266">
-        <v>3.9703118819156198</v>
-      </c>
-      <c r="X266">
-        <v>11.10762073081918</v>
-      </c>
-    </row>
-    <row r="267" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A267">
-        <v>2.21</v>
-      </c>
-      <c r="D267">
-        <v>1451</v>
-      </c>
-      <c r="F267">
-        <v>74</v>
-      </c>
-      <c r="G267">
-        <v>3442777</v>
-      </c>
-      <c r="H267">
-        <v>53</v>
-      </c>
-      <c r="I267">
-        <v>46</v>
-      </c>
-      <c r="J267">
-        <v>470</v>
-      </c>
-      <c r="K267" s="2">
-        <v>151.93289184570313</v>
-      </c>
-      <c r="L267">
-        <v>110</v>
-      </c>
-      <c r="O267">
-        <v>14.3</v>
-      </c>
-      <c r="P267">
-        <v>1675.4185264313821</v>
-      </c>
-      <c r="R267">
-        <v>704559.45407626918</v>
-      </c>
-      <c r="S267">
-        <v>-6.2667950304239524</v>
-      </c>
-      <c r="T267" s="3">
-        <v>-0.58234690662542699</v>
-      </c>
-      <c r="V267">
-        <v>174.3379960460106</v>
-      </c>
-      <c r="W267">
-        <v>-17.224174237277708</v>
-      </c>
-      <c r="X267">
-        <v>11.337897558747949</v>
-      </c>
-    </row>
-    <row r="268" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A268">
-        <v>3.21</v>
-      </c>
-      <c r="D268">
-        <v>1511</v>
-      </c>
-      <c r="F268">
-        <v>103</v>
-      </c>
-      <c r="G268">
-        <v>4691738</v>
-      </c>
-      <c r="H268">
-        <v>55</v>
-      </c>
-      <c r="I268">
-        <v>49</v>
-      </c>
-      <c r="J268">
-        <v>350</v>
-      </c>
-      <c r="K268" s="2">
-        <v>139.80120849609375</v>
-      </c>
-      <c r="L268">
-        <v>115</v>
-      </c>
-      <c r="P268">
-        <v>1633.1498610939957</v>
-      </c>
-      <c r="R268">
-        <v>1681719.7105785264</v>
-      </c>
-      <c r="S268">
-        <v>3.635880789830602</v>
-      </c>
-      <c r="T268" s="3">
-        <v>6.8889185847128811</v>
-      </c>
-      <c r="V268">
-        <v>45.381545353631402</v>
-      </c>
-      <c r="W268">
-        <v>-47.617719247217167</v>
-      </c>
-      <c r="X268">
-        <v>11.017258314741809</v>
-      </c>
-    </row>
     <row r="269" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A269">
-        <v>4.21</v>
-      </c>
-      <c r="D269">
-        <v>1690</v>
-      </c>
-      <c r="F269">
-        <v>36</v>
-      </c>
-      <c r="G269">
-        <v>3514070</v>
-      </c>
-      <c r="H269">
-        <v>66</v>
-      </c>
-      <c r="I269">
-        <v>47</v>
-      </c>
-      <c r="J269">
-        <v>209</v>
-      </c>
-      <c r="K269" s="2">
-        <v>124.8895263671875</v>
-      </c>
-      <c r="L269">
-        <v>65</v>
-      </c>
-      <c r="P269">
-        <v>1773.9524540535654</v>
-      </c>
-      <c r="R269">
-        <v>751496.06708078366</v>
-      </c>
-      <c r="S269">
-        <v>6.2364703808467539</v>
-      </c>
-      <c r="T269" s="3">
-        <v>1.6040948380133699</v>
-      </c>
-      <c r="V269">
-        <v>-85.46790416671206</v>
-      </c>
-      <c r="W269">
-        <v>-37.019959934069327</v>
-      </c>
-      <c r="X269">
-        <v>-30.652525643933402</v>
-      </c>
-    </row>
-    <row r="270" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A270">
-        <v>5.21</v>
-      </c>
-      <c r="D270">
-        <v>1902</v>
-      </c>
-      <c r="F270">
-        <v>65</v>
-      </c>
-      <c r="G270">
-        <v>3222105</v>
-      </c>
-      <c r="H270">
-        <v>50</v>
-      </c>
-      <c r="I270">
-        <v>41</v>
-      </c>
-      <c r="J270">
-        <v>302</v>
-      </c>
-      <c r="K270" s="2">
-        <v>147.01583862304688</v>
-      </c>
-      <c r="L270">
-        <v>77</v>
-      </c>
-      <c r="P270">
-        <v>1838.1970351440148</v>
-      </c>
-      <c r="R270">
-        <v>648362.11358304042</v>
-      </c>
-      <c r="S270">
-        <v>-7.0518349796500042</v>
-      </c>
-      <c r="T270" s="3">
-        <v>-7.4168309554759029</v>
-      </c>
-      <c r="V270">
-        <v>-19.8978230134428</v>
-      </c>
-      <c r="W270">
-        <v>-27.11749992362007</v>
-      </c>
-      <c r="X270">
-        <v>-13.761177169430439</v>
-      </c>
-    </row>
-    <row r="271" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A271">
-        <v>6.21</v>
-      </c>
-      <c r="D271">
-        <v>1862</v>
-      </c>
-      <c r="F271">
-        <v>77</v>
-      </c>
-      <c r="G271">
-        <v>3054726</v>
-      </c>
-      <c r="H271">
-        <v>59</v>
-      </c>
-      <c r="I271">
-        <v>42</v>
-      </c>
-      <c r="J271">
-        <v>272</v>
-      </c>
-      <c r="K271" s="2">
-        <v>133.578857421875</v>
-      </c>
-      <c r="L271">
-        <v>64</v>
-      </c>
-      <c r="P271">
-        <v>1782.6238645132221</v>
-      </c>
-      <c r="R271">
-        <v>569793.3500852976</v>
-      </c>
-      <c r="S271">
-        <v>1.085697466167354</v>
-      </c>
-      <c r="T271" s="3">
-        <v>-6.7646991401303556</v>
-      </c>
-      <c r="V271">
-        <v>-70.78817674595399</v>
-      </c>
-      <c r="W271">
-        <v>-22.74761016035907</v>
-      </c>
-      <c r="X271">
-        <v>-14.06093353496264</v>
-      </c>
-    </row>
-    <row r="272" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A272">
-        <v>7.21</v>
-      </c>
-      <c r="D272">
-        <v>1951</v>
-      </c>
-      <c r="F272">
-        <v>73</v>
-      </c>
-      <c r="G272">
-        <v>2882676</v>
-      </c>
-      <c r="H272">
-        <v>76</v>
-      </c>
-      <c r="I272">
-        <v>41</v>
-      </c>
-      <c r="J272">
-        <v>232</v>
-      </c>
-      <c r="K272" s="2">
-        <v>152.91090393066406</v>
-      </c>
-      <c r="L272">
-        <v>61</v>
-      </c>
-      <c r="P272">
-        <v>1773.4865228235683</v>
-      </c>
-      <c r="R272">
-        <v>520074.07658755453</v>
-      </c>
-      <c r="S272">
-        <v>10.53197467627372</v>
-      </c>
-      <c r="T272" s="3">
-        <v>-4.1975178916061093</v>
-      </c>
-      <c r="V272">
-        <v>-17.041026121190271</v>
-      </c>
-      <c r="W272">
-        <v>-10.72727600803174</v>
-      </c>
-      <c r="X272">
-        <v>-11.98707902006608</v>
-      </c>
-    </row>
-    <row r="273" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A273">
-        <v>8.2100000000000009</v>
-      </c>
-      <c r="D273">
-        <v>1756</v>
-      </c>
-      <c r="F273">
-        <v>55</v>
-      </c>
-      <c r="G273">
-        <v>2715223</v>
-      </c>
-      <c r="H273">
-        <v>53</v>
-      </c>
-      <c r="I273">
-        <v>42</v>
-      </c>
-      <c r="J273">
-        <v>140</v>
-      </c>
-      <c r="K273" s="2">
-        <v>133.81454467773438</v>
-      </c>
-      <c r="L273">
-        <v>52</v>
-      </c>
-      <c r="P273">
-        <v>1683.874561841697</v>
-      </c>
-      <c r="R273">
-        <v>73174.573089811951</v>
-      </c>
-      <c r="S273">
-        <v>-4.0440271022879504</v>
-      </c>
-      <c r="T273" s="3">
-        <v>-4.0861324407331692</v>
-      </c>
-      <c r="V273">
-        <v>-110.9692004509817</v>
-      </c>
-      <c r="W273">
-        <v>-8.1108518133290772</v>
-      </c>
-      <c r="X273">
-        <v>-13.29852639441215</v>
-      </c>
-    </row>
-    <row r="274" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A274">
-        <v>9.2100000000000009</v>
-      </c>
-      <c r="D274">
-        <v>1750</v>
-      </c>
-      <c r="F274">
-        <v>49</v>
-      </c>
-      <c r="G274">
-        <v>2626389</v>
-      </c>
-      <c r="H274">
-        <v>63</v>
-      </c>
-      <c r="I274">
-        <v>41</v>
-      </c>
-      <c r="J274">
-        <v>181</v>
-      </c>
-      <c r="K274" s="2">
-        <v>147.78768920898438</v>
-      </c>
-      <c r="L274">
-        <v>53</v>
-      </c>
-      <c r="P274">
-        <v>1742.7556949095924</v>
-      </c>
-      <c r="R274">
-        <v>54250.85959206894</v>
-      </c>
-      <c r="S274">
-        <v>1.8231390555028</v>
-      </c>
-      <c r="T274" s="3">
-        <v>-2.6260246735017621</v>
-      </c>
-      <c r="V274">
-        <v>-38.21124636918131</v>
-      </c>
-      <c r="W274">
-        <v>19.43632927684811</v>
-      </c>
-      <c r="X274">
-        <v>3.940808110355277</v>
-      </c>
-    </row>
-    <row r="275" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A275">
-        <v>10.210000000000001</v>
-      </c>
-      <c r="D275">
-        <v>1872</v>
-      </c>
-      <c r="F275">
-        <v>58</v>
-      </c>
-      <c r="G275">
-        <v>2593168</v>
-      </c>
-      <c r="H275">
-        <v>50</v>
-      </c>
-      <c r="I275">
-        <v>38</v>
-      </c>
-      <c r="J275">
-        <v>181</v>
-      </c>
-      <c r="K275" s="2">
-        <v>138.67298889160156</v>
-      </c>
-      <c r="L275">
-        <v>32</v>
-      </c>
-      <c r="P275">
-        <v>1826.1473395664941</v>
-      </c>
-      <c r="R275">
-        <v>-63890.833905674051</v>
-      </c>
-      <c r="S275">
-        <v>-2.6571418405123479</v>
-      </c>
-      <c r="T275" s="3">
-        <v>-3.5237032014193108</v>
-      </c>
-      <c r="V275">
-        <v>-31.94915331909419</v>
-      </c>
-      <c r="W275">
-        <v>13.32503208215871</v>
-      </c>
-      <c r="X275">
-        <v>-10.009383098012609</v>
-      </c>
-    </row>
-    <row r="276" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A276">
-        <v>11.21</v>
-      </c>
-      <c r="D276">
-        <v>1553</v>
-      </c>
-      <c r="F276">
-        <v>55</v>
-      </c>
-      <c r="G276">
-        <v>2717458</v>
-      </c>
-      <c r="H276">
-        <v>60</v>
-      </c>
-      <c r="I276">
-        <v>38</v>
-      </c>
-      <c r="J276">
-        <v>231</v>
-      </c>
-      <c r="K276" s="2"/>
-      <c r="L276">
-        <v>47</v>
-      </c>
-      <c r="P276">
-        <v>1580.0382968272984</v>
-      </c>
-      <c r="R276">
-        <v>-155320.11740341689</v>
-      </c>
-      <c r="S276">
-        <v>4.4280292113228379</v>
-      </c>
-      <c r="T276" s="3">
-        <v>-5.0455832133935257</v>
-      </c>
-      <c r="V276">
-        <v>24.021908787170162</v>
-      </c>
-      <c r="X276">
-        <v>14.95157043757486</v>
-      </c>
-    </row>
-    <row r="277" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A277">
-        <v>12.21</v>
-      </c>
-      <c r="F277">
-        <v>56.5</v>
-      </c>
-      <c r="H277">
-        <v>75</v>
-      </c>
-      <c r="K277" s="2"/>
-      <c r="S277">
-        <v>14.48729528674976</v>
-      </c>
-    </row>
-    <row r="278" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="H278">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="282" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A282" s="1"/>
+      <c r="A269" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
